--- a/regions/10/pirdapiri uckhouri investiciebi/pirdapiri uckhouri investiciebi.xlsx
+++ b/regions/10/pirdapiri uckhouri investiciebi/pirdapiri uckhouri investiciebi.xlsx
@@ -4,16 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -84,17 +88,17 @@
     <t>*წინასწარი მონაცემები.</t>
   </si>
   <si>
-    <t xml:space="preserve"> 2022 *</t>
+    <t xml:space="preserve"> 2024 *</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0;\-#,##0.0;\-"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,15 +115,6 @@
       <charset val="204"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
@@ -212,8 +207,8 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="Sylfaen"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -250,73 +245,67 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -626,7 +615,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P27"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:F1"/>
@@ -634,526 +623,487 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="11.28515625" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" customWidth="1"/>
+    <col min="2" max="6" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:7" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="F3" s="17" t="s">
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="F3" s="15" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="12"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="13">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
         <v>2009</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="13">
         <v>44670.331853411459</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="13">
         <v>83688.183755859267</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="13">
         <v>119668.19531298309</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="13">
         <v>103662.94145045785</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="14">
         <v>351689.65237271169</v>
       </c>
-      <c r="G5" s="18"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="13">
+      <c r="G5" s="16"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
         <v>2010</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="13">
         <v>90360.646092499999</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="13">
         <v>142027.06215604398</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="13">
         <v>198926.35909766782</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="13">
         <v>175369.63348801265</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="14">
         <v>606683.70083422435</v>
       </c>
-      <c r="G6" s="18"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="13">
+      <c r="G6" s="16"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
         <v>2011</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="13">
         <v>141444.89218174998</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="13">
         <v>240798.01159442522</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="13">
         <v>196711.51130832284</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="13">
         <v>207635.20862511694</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="14">
         <v>786589.62370961497</v>
       </c>
-      <c r="G7" s="18"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="13">
+      <c r="G7" s="16"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
         <v>2012</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="13">
         <v>212388.84849981399</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="13">
         <v>177407.70278140425</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="13">
         <v>174780.42267172411</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="13">
         <v>208100.5250775012</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="14">
         <v>772677.49903044361</v>
       </c>
-      <c r="G8" s="18"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="13">
+      <c r="G8" s="16"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
         <v>2013</v>
       </c>
-      <c r="B9" s="15">
+      <c r="B9" s="13">
         <v>233815.35932933167</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="13">
         <v>144011.14502130126</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="13">
         <v>194570.63567488143</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="13">
         <v>177872.36755904739</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9" s="14">
         <v>750269.50758456206</v>
       </c>
-      <c r="G9" s="18"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="13">
+      <c r="G9" s="16"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
         <v>2014</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B10" s="13">
         <v>245152.0548969201</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="13">
         <v>76520.245386100083</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="13">
         <v>616342.06842234195</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="13">
         <v>405173.23019797693</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="14">
         <v>1343187.5989033391</v>
       </c>
-      <c r="G10" s="18"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="13">
+      <c r="G10" s="16"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
         <v>2015</v>
       </c>
-      <c r="B11" s="15">
+      <c r="B11" s="13">
         <v>229186.51318810636</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="13">
         <v>423744.8513430591</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="13">
         <v>457158.9949460405</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="13">
         <v>272822.81178646104</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="14">
         <v>1382913.1712636668</v>
       </c>
-      <c r="G11" s="18"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="13">
+      <c r="G11" s="16"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
         <v>2016</v>
       </c>
-      <c r="B12" s="15">
-        <v>277866.39949999982</v>
-      </c>
-      <c r="C12" s="15">
-        <v>414977.55879999988</v>
-      </c>
-      <c r="D12" s="15">
-        <v>407181.59450000012</v>
-      </c>
-      <c r="E12" s="15">
-        <v>315970.79060000007</v>
-      </c>
-      <c r="F12" s="16">
-        <v>1415996.3433999997</v>
-      </c>
-      <c r="G12" s="18"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="13">
+      <c r="B12" s="13">
+        <v>277358.7561</v>
+      </c>
+      <c r="C12" s="13">
+        <v>415497.3086999997</v>
+      </c>
+      <c r="D12" s="13">
+        <v>407304.85979999992</v>
+      </c>
+      <c r="E12" s="13">
+        <v>315851.56399999984</v>
+      </c>
+      <c r="F12" s="14">
+        <v>1416012.4885999993</v>
+      </c>
+      <c r="G12" s="16"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
         <v>2017</v>
       </c>
-      <c r="B13" s="15">
-        <v>312050.61520000017</v>
-      </c>
-      <c r="C13" s="15">
-        <v>306892.57630000002</v>
-      </c>
-      <c r="D13" s="15">
-        <v>446013.46900000004</v>
-      </c>
-      <c r="E13" s="15">
-        <v>469514.90290000022</v>
-      </c>
-      <c r="F13" s="16">
-        <v>1534471.5634000003</v>
-      </c>
-      <c r="G13" s="18"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="13">
+      <c r="B13" s="13">
+        <v>312135.88819999999</v>
+      </c>
+      <c r="C13" s="13">
+        <v>306868.2694999993</v>
+      </c>
+      <c r="D13" s="13">
+        <v>445992.50800000026</v>
+      </c>
+      <c r="E13" s="13">
+        <v>469474.89640000026</v>
+      </c>
+      <c r="F13" s="14">
+        <v>1534471.5620999997</v>
+      </c>
+      <c r="G13" s="16"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
         <v>2018</v>
       </c>
-      <c r="B14" s="15">
-        <v>290643.23119999981</v>
-      </c>
-      <c r="C14" s="15">
-        <v>322645.60079999943</v>
-      </c>
-      <c r="D14" s="15">
-        <v>272562.69420000003</v>
-      </c>
-      <c r="E14" s="15">
-        <v>186970.87639999986</v>
-      </c>
-      <c r="F14" s="16">
-        <v>1072822.4025999992</v>
-      </c>
-      <c r="G14" s="18"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="13">
+      <c r="B14" s="13">
+        <v>290862.10679999995</v>
+      </c>
+      <c r="C14" s="13">
+        <v>322941.56489999994</v>
+      </c>
+      <c r="D14" s="13">
+        <v>272509.9392000002</v>
+      </c>
+      <c r="E14" s="13">
+        <v>186981.83029999997</v>
+      </c>
+      <c r="F14" s="14">
+        <v>1073295.4412</v>
+      </c>
+      <c r="G14" s="16"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="11">
         <v>2019</v>
       </c>
-      <c r="B15" s="15">
-        <v>245959.36229999998</v>
-      </c>
-      <c r="C15" s="15">
-        <v>147743.3171999999</v>
-      </c>
-      <c r="D15" s="15">
-        <v>270746.73770000017</v>
-      </c>
-      <c r="E15" s="15">
-        <v>283070.13120000012</v>
-      </c>
-      <c r="F15" s="16">
-        <v>947519.5484000002</v>
-      </c>
-      <c r="G15" s="18"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="13">
+      <c r="B15" s="13">
+        <v>248656.49940000006</v>
+      </c>
+      <c r="C15" s="13">
+        <v>149978.39889999983</v>
+      </c>
+      <c r="D15" s="13">
+        <v>272735.4227000004</v>
+      </c>
+      <c r="E15" s="13">
+        <v>288508.14310000039</v>
+      </c>
+      <c r="F15" s="14">
+        <v>959878.46410000068</v>
+      </c>
+      <c r="G15" s="16"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
         <v>2020</v>
       </c>
-      <c r="B16" s="15">
-        <v>139749.23410000003</v>
-      </c>
-      <c r="C16" s="15">
-        <v>138214.57330000013</v>
-      </c>
-      <c r="D16" s="15">
-        <v>239795.79970000018</v>
-      </c>
-      <c r="E16" s="15">
-        <v>-177559.95230000035</v>
-      </c>
-      <c r="F16" s="16">
-        <v>340199.65480000002</v>
-      </c>
-      <c r="G16" s="18"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="13">
+      <c r="B16" s="13">
+        <v>143579.76029999985</v>
+      </c>
+      <c r="C16" s="13">
+        <v>141006.79049999986</v>
+      </c>
+      <c r="D16" s="13">
+        <v>242472.47980000012</v>
+      </c>
+      <c r="E16" s="13">
+        <v>-194512.66209999975</v>
+      </c>
+      <c r="F16" s="14">
+        <v>332546.3685000001</v>
+      </c>
+      <c r="G16" s="16"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
         <v>2021</v>
       </c>
-      <c r="B17" s="15">
-        <v>121102.12660000006</v>
-      </c>
-      <c r="C17" s="15">
-        <v>272158.42820000002</v>
-      </c>
-      <c r="D17" s="15">
-        <v>229630.55289999995</v>
-      </c>
-      <c r="E17" s="15">
-        <v>420545.86109999981</v>
-      </c>
-      <c r="F17" s="16">
-        <v>1043436.9687999999</v>
-      </c>
-      <c r="G17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
+      <c r="B17" s="13">
+        <v>123211.89010000005</v>
+      </c>
+      <c r="C17" s="13">
+        <v>275350.22609999968</v>
+      </c>
+      <c r="D17" s="13">
+        <v>241920.70419999986</v>
+      </c>
+      <c r="E17" s="13">
+        <v>401079.2586999996</v>
+      </c>
+      <c r="F17" s="14">
+        <v>1041562.0790999993</v>
+      </c>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="11">
+        <v>2022</v>
+      </c>
+      <c r="B18" s="13">
+        <v>498032.84350000101</v>
+      </c>
+      <c r="C18" s="13">
+        <v>293385.37690000032</v>
+      </c>
+      <c r="D18" s="13">
+        <v>854708.33789999946</v>
+      </c>
+      <c r="E18" s="13">
+        <v>386057.58750000014</v>
+      </c>
+      <c r="F18" s="14">
+        <v>2032184.145800001</v>
+      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="11">
+        <v>2023</v>
+      </c>
+      <c r="B19" s="13">
+        <v>546867.70180000039</v>
+      </c>
+      <c r="C19" s="13">
+        <v>450891.69210000033</v>
+      </c>
+      <c r="D19" s="13">
+        <v>331040.91239999956</v>
+      </c>
+      <c r="E19" s="13">
+        <v>373214.2114000002</v>
+      </c>
+      <c r="F19" s="14">
+        <v>1702014.5177000004</v>
+      </c>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="15">
-        <v>457757.82500000088</v>
-      </c>
-      <c r="C18" s="15">
-        <v>238502.39959999998</v>
-      </c>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="16">
-        <f>SUM(B18:E18)</f>
-        <v>696260.22460000089</v>
-      </c>
-      <c r="G18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
+      <c r="B20" s="13">
+        <v>125731.34790000018</v>
+      </c>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="14">
+        <v>125731.34790000018</v>
+      </c>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
-        <v>8</v>
-      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
+      <c r="F22" s="5"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="7"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="5"/>
-      <c r="P26" s="5"/>
-    </row>
-    <row r="27" spans="1:16" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="23" t="s">
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+    </row>
+    <row r="29" spans="1:8" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="19"/>
-      <c r="M27" s="19"/>
-      <c r="N27" s="19"/>
-      <c r="O27" s="19"/>
-      <c r="P27" s="19"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A27:G27"/>
+    <mergeCell ref="A29:G29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/regions/10/pirdapiri uckhouri investiciebi/pirdapiri uckhouri investiciebi.xlsx
+++ b/regions/10/pirdapiri uckhouri investiciebi/pirdapiri uckhouri investiciebi.xlsx
@@ -295,17 +295,17 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -618,7 +618,7 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -628,14 +628,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -647,19 +647,19 @@
     </row>
     <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="19" t="s">
         <v>6</v>
       </c>
     </row>
@@ -963,7 +963,7 @@
         <v>2023</v>
       </c>
       <c r="B19" s="13">
-        <v>546867.70180000039</v>
+        <v>343676.77580000012</v>
       </c>
       <c r="C19" s="13">
         <v>450891.69210000033</v>
@@ -975,7 +975,7 @@
         <v>373214.2114000002</v>
       </c>
       <c r="F19" s="14">
-        <v>1702014.5177000004</v>
+        <v>1498823.5917000002</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
@@ -987,11 +987,13 @@
       <c r="B20" s="13">
         <v>125731.34790000018</v>
       </c>
-      <c r="C20" s="13"/>
+      <c r="C20" s="13">
+        <v>512712.72640000097</v>
+      </c>
       <c r="D20" s="13"/>
       <c r="E20" s="13"/>
       <c r="F20" s="14">
-        <v>125731.34790000018</v>
+        <v>638444.07430000114</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
@@ -1089,15 +1091,15 @@
       <c r="H28" s="4"/>
     </row>
     <row r="29" spans="1:8" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="19" t="s">
+      <c r="A29" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
       <c r="H29" s="17"/>
     </row>
   </sheetData>
